--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O128"/>
+  <dimension ref="A1:P128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,70 +441,75 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Rescore Place</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Swim Laps</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Swim Distance (Yards)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Bike Distance (Miles)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Run Laps</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Run Distance (Miles)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Calculated Score</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Team</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Swim Distance (Yards) StdDev</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Bike Distance (Miles) StdDev</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Run Distance (Miles) StdDev</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>averageStdDev</t>
         </is>
@@ -515,49 +520,52 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>22</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Garrett Haufschild</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>31</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>775</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>8.24</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>22</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>2.75</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>57.41344856646641</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>1.57833757165048</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>1.20959606562473</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>2.327810649703889</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>1.7052480956597</v>
       </c>
     </row>
@@ -566,51 +574,54 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
         <v>112</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Brandon Hall</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>36</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>900</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>7.54</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>20</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>2.5</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>60.41222929560861</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>MSU</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>2.594812579762097</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.5570498538762109</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>1.699474937669046</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>1.617112457102451</v>
       </c>
     </row>
@@ -619,51 +630,54 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
         <v>125</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Andrew Willman</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>22</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>550</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>9.52</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>23</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>2.875</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>56.98490311223304</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>MU</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>2.402823424250593</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>2.641978505721311</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>1.597828162340491</v>
       </c>
     </row>
@@ -672,51 +686,54 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
         <v>122</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Blake Bouwman</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>33</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>825</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>18</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>2.25</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>59.21058342121916</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>UM</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>1.984927574895127</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1.563835437716783</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>1.071139225634202</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>1.539967412748704</v>
       </c>
     </row>
@@ -725,51 +742,54 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>115</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Joseph Melaragni</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>33</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>825</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>8.470000000000001</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>18</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>2.25</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>59.71710979929162</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>UM</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>1.984927574895127</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>1.424004106627816</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>1.071139225634202</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>1.493356969052381</v>
       </c>
     </row>
@@ -778,51 +798,54 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
         <v>153</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Michael Sauer</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>28</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>700</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>8.130000000000001</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>22</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>2.75</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>58.95222673759204</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>XU</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.9684525667835093</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>1.107053089492821</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>2.327810649703889</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>1.467772101993406</v>
       </c>
     </row>
@@ -831,49 +854,52 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
         <v>21</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Roman Mitchell</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>28</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>700</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>8.4</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>19</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>2.375</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>60.64732832080201</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.9684525667835093</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>1.358749485452963</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>1.385307081651624</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>1.237503044629366</v>
       </c>
     </row>
@@ -882,51 +908,54 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
         <v>172</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Frederick Smal</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>31</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>775</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>8.69</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>16</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>62.20494532091021</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>UNK</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>1.57833757165048</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>1.629090058891635</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>1.216743714713824</v>
       </c>
     </row>
@@ -935,51 +964,54 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
         <v>171</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Will Griffith</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>33</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>825</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>7.72</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>17</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>2.125</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>63.76068297728889</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>UNK</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>1.984927574895127</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>0.7248474511829727</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>0.75697136961678</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>1.155582131898293</v>
       </c>
     </row>
@@ -988,49 +1020,52 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
         <v>17</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Brittany Webb</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>31</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>775</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>16</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>63.53806218422076</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>1.57833757165048</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>1.265528598060318</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>1.095556561103385</v>
       </c>
     </row>
@@ -1039,51 +1074,54 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
         <v>111</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Quinn LeBorgne</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>34</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>850</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>7.59</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>16</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>65.38291451600404</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>MU</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>2.18822257651745</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>0.6036602975725335</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>1.078228795896447</v>
       </c>
     </row>
@@ -1092,51 +1130,54 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
         <v>156</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Leah Ford</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>30</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>750</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>8.08</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>17</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>2.125</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>63.33198594447681</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>1.375042570028156</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>1.060442645796497</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>0.75697136961678</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>1.064152195147144</v>
       </c>
     </row>
@@ -1147,49 +1188,52 @@
       <c r="B14" t="n">
         <v>13</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Cole Winslow</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>30</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>750</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>7.7</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>18</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>2.25</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>63.62215411255411</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>1.375042570028156</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>0.7062032737044439</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>1.071139225634202</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>1.050795023122267</v>
       </c>
     </row>
@@ -1198,51 +1242,54 @@
         <v>9</v>
       </c>
       <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
         <v>121</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Amar Dhingra</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>28</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>700</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>7.76</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>19</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>2.375</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>63.06802542438572</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>UM</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>0.9684525667835093</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>0.762135806140031</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>1.385307081651624</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>1.038631818191721</v>
       </c>
     </row>
@@ -1251,51 +1298,54 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
         <v>113</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Luke Wilson</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>29</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>725</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>8.529999999999999</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>16</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>63.46701354246676</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>MU</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>1.171747568405833</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>1.479936639063402</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>1.031495907022864</v>
       </c>
     </row>
@@ -1304,51 +1354,54 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
         <v>127</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Jonah Femiani</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>30</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>750</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>7.78</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>17</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>2.125</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>64.50859390090227</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>MU</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>1.375042570028156</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>0.7807799836185605</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>0.75697136961678</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>0.9709313077544989</v>
       </c>
     </row>
@@ -1357,51 +1410,54 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
         <v>118</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Spencer Gifford</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>30</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>750</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>7.76</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>17</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>2.125</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>64.59026909237923</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>UM</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>1.375042570028156</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>0.762135806140031</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>0.75697136961678</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>0.9647165819283224</v>
       </c>
     </row>
@@ -1410,51 +1466,54 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
         <v>98</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Andrew Holzinger</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>30</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>750</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>7.7</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>17</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>2.125</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>64.83784038706392</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>NW</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>1.375042570028156</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>0.7062032737044439</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>0.75697136961678</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>0.9460724044497933</v>
       </c>
     </row>
@@ -1463,51 +1522,54 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
         <v>141</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Alek Vizmeg</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>32</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>800</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>6.9</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>17</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>2.125</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>67.86669714407503</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>UC</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>1.781632573272803</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>-0.03956382543672073</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>0.75697136961678</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>0.8330133724842875</v>
       </c>
     </row>
@@ -1516,51 +1578,54 @@
         <v>16</v>
       </c>
       <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
         <v>16</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Noah Buschur</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>21</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>525</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>7.88</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>21</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>2.625</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>64.62534106840707</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>-0.4546124445727551</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>0.8740008710112058</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>2.013642793686468</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>0.8110104067083062</v>
       </c>
     </row>
@@ -1569,51 +1634,54 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
         <v>165</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Jayden Reyes</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>29</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>725</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>6.68</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>19</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>2.375</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>67.80070991229883</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>XU</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>1.171747568405833</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>-0.2446497777005417</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>1.385307081651624</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>0.7708016241189717</v>
       </c>
     </row>
@@ -1622,51 +1690,54 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
         <v>133</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>George Fisher</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>29</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>725</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>7.53</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>16</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>67.30547758391721</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>1.171747568405833</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>0.5477277651369465</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>0.7207596157140458</v>
       </c>
     </row>
@@ -1675,49 +1746,52 @@
         <v>20</v>
       </c>
       <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
         <v>12</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Mike Ballas</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>25</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>625</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>7.6</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>18</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>2.25</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>66.23071298245614</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>0</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>0.3585675619165389</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>0.6129823863117979</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>1.071139225634202</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>0.6808963912875129</v>
       </c>
     </row>
@@ -1726,51 +1800,54 @@
         <v>19</v>
       </c>
       <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
         <v>123</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Grace Zoppi</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>21</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>525</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>8.43</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>18</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>2.25</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>65.53640535502458</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>UM</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>-0.4546124445727551</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1.386715751670756</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>1.071139225634202</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>0.6677475109107345</v>
       </c>
     </row>
@@ -1779,49 +1856,52 @@
         <v>41</v>
       </c>
       <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
         <v>48</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Sarah Chait</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>22</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>550</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>6.18</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>24</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>3</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>70.30758929096794</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>0</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>-0.7107542146637696</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>2.956146361738733</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>0.6646915680415106</v>
       </c>
     </row>
@@ -1830,51 +1910,54 @@
         <v>21</v>
       </c>
       <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
         <v>166</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Zach Taylor</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>24</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>600</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>8.66</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>15</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>1.875</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>66.9400792917629</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>XU</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>0.1552725602942154</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1.601123792673842</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>0.1286356575819363</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>0.6283440035166644</v>
       </c>
     </row>
@@ -1883,51 +1966,54 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
         <v>142</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Drew Cozad</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>26</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>650</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>8.56</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>14</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>1.75</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>67.99253425079594</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>UC</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>0.5618625635388623</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1.507902905281197</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>-0.1855321984354856</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>0.6280777567948577</v>
       </c>
     </row>
@@ -1936,49 +2022,52 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
         <v>24</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Wyatt Ross</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>27</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>675</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>7.84</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>15</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>1.875</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>68.39885638699924</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>0</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>0.7651575651611858</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>0.8367125160541475</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>0.1286356575819363</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>0.5768352462657566</v>
       </c>
     </row>
@@ -1987,51 +2076,54 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
         <v>107</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Constance Loring</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>27</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>675</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>7.5</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>16</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>68.27447407407408</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>0.7651575651611858</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>0.5197614989191526</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>0.5759075258932321</v>
       </c>
     </row>
@@ -2040,51 +2132,54 @@
         <v>23</v>
       </c>
       <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
         <v>106</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Ella Wince</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>25</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>625</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>7.9</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>16</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>2</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>67.58212759493671</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>0.3585675619165389</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>0.8926450484897354</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>0.5646720413352108</v>
       </c>
     </row>
@@ -2093,51 +2188,54 @@
         <v>29</v>
       </c>
       <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
         <v>168</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Hayden Gillen</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>18</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>450</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>7.82</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>20</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>2.5</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>68.35498834896279</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>XU</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>-1.064497449439725</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>0.8180683385756188</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>1.699474937669046</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>0.4843486089349797</v>
       </c>
     </row>
@@ -2146,49 +2244,52 @@
         <v>27</v>
       </c>
       <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
         <v>143</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Garrett Keller</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>18</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>450</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>8.42</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>18</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>2.25</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>68.17501293217208</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>0</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>-1.064497449439725</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>1.377393662931492</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>1.071139225634202</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>0.4613451463753228</v>
       </c>
     </row>
@@ -2197,49 +2298,52 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
         <v>26</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Ignacio Garnica</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>25</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>625</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>7.2</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>17</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>2.125</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>69.24865071895425</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>0</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>0.3585675619165389</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>0.2400988367412159</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>0.75697136961678</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>0.4518792560915116</v>
       </c>
     </row>
@@ -2248,49 +2352,52 @@
         <v>39</v>
       </c>
       <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
         <v>78</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Michael Ma</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>27</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>675</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>7.08</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>16</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>2</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>70.22457124921532</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>0</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>0.7651575651611858</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>0.1282337718700411</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>0.4453982835435284</v>
       </c>
     </row>
@@ -2299,51 +2406,54 @@
         <v>32</v>
       </c>
       <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
         <v>124</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Joey Endres</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>22</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>550</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>8.07</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>16</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>2</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>68.71426810859525</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>MU</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>1.051120557057233</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>0.4142022092353865</v>
       </c>
     </row>
@@ -2352,51 +2462,54 @@
         <v>44</v>
       </c>
       <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
         <v>131</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Livia Dubbs</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>26</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>650</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>7.87</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>14</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>1.75</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>70.51777086445956</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>0.5618625635388623</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>0.8646787822719414</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>-0.1855321984354856</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>0.4136697157917728</v>
       </c>
     </row>
@@ -2405,49 +2518,52 @@
         <v>31</v>
       </c>
       <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
         <v>38</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Matt Herring</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>20</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>500</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>8.15</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>17</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>2.125</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>68.53804128473476</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>0</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>-0.6579074461950786</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1.125697266971349</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>0.75697136961678</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>0.408253730131017</v>
       </c>
     </row>
@@ -2456,51 +2572,54 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="n">
         <v>145</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Mike Meiners</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>24</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>600</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>8.26</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>14</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>1.75</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>70.09018805488297</v>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>UC</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>0.1552725602942154</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1.228240243103259</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>-0.1855321984354856</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>0.3993268683206629</v>
       </c>
     </row>
@@ -2509,51 +2628,54 @@
         <v>35</v>
       </c>
       <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="n">
         <v>151</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Charlie Moore</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>24</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>600</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>7.2</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>17</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>2.125</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>69.79546405228758</v>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>0.1552725602942154</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>0.2400988367412159</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>0.75697136961678</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>0.3841142555507371</v>
       </c>
     </row>
@@ -2562,51 +2684,54 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="n">
         <v>154</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Frankie Matthews</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>24</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>600</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>7.11</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>17</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>2.125</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>70.22891693555059</v>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>UC</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>0.1552725602942154</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>0.156200038087835</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>0.75697136961678</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>0.3561479893329435</v>
       </c>
     </row>
@@ -2615,49 +2740,52 @@
         <v>34</v>
       </c>
       <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="n">
         <v>11</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Matt Ambos</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>22</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>550</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>7.52</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>17</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>2.125</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>69.58108214813973</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>0</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>0.5384056763976813</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>0.75697136961678</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>0.3480198676880099</v>
       </c>
     </row>
@@ -2666,51 +2794,54 @@
         <v>36</v>
       </c>
       <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="n">
         <v>82</v>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Turner Jackson</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>23</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>575</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>7.61</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>16</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>2</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>69.91259315545906</v>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>NW</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>-0.04802244132810809</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>0.622304475051063</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>0.3390285157741044</v>
       </c>
     </row>
@@ -2719,49 +2850,52 @@
         <v>37</v>
       </c>
       <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="n">
         <v>148</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Sarah Slattery</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>22</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>550</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>7.75</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>16</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>69.97573607038123</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>0</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>0.7528137174007666</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>0.3147665960165644</v>
       </c>
     </row>
@@ -2770,51 +2904,54 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="n">
         <v>92</v>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Krista Borton</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>26</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>650</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>7.16</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>15</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>1.875</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>71.85284744305973</v>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
         <v>0.5618625635388623</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>0.2028104817841576</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>0.1286356575819363</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>0.2977695676349854</v>
       </c>
     </row>
@@ -2823,51 +2960,54 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="n">
         <v>94</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Breck Dunbar</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>23</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>575</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>7.47</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>16</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>2</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>70.51978266689949</v>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>NW</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
         <v>-0.04802244132810809</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>0.4917952327013587</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>0.2955254349908696</v>
       </c>
     </row>
@@ -2876,49 +3016,52 @@
         <v>42</v>
       </c>
       <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="n">
         <v>77</v>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Nick Tierney</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>21</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>525</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>7.23</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>18</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>2.25</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>70.39059632483699</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>0</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>-0.4546124445727551</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>0.2680651029590098</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>1.071139225634202</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>0.2948639613401522</v>
       </c>
     </row>
@@ -2927,51 +3070,54 @@
         <v>43</v>
       </c>
       <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="n">
         <v>132</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Gregory Zickes</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>22</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>550</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>7.65</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>16</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>2</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>70.39158764111706</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>UT</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>0.6595928300081213</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>0.2836929668856826</v>
       </c>
     </row>
@@ -2980,49 +3126,52 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="n">
         <v>135</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Brayden Radke</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>24</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>600</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>7.17</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>16</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>2</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>71.30638633193863</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>0</v>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
         <v>0.1552725602942154</v>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>0.212132570523422</v>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>0.2700695481389985</v>
       </c>
     </row>
@@ -3031,51 +3180,54 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="n">
         <v>144</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Alhim Adonai Vera Gonzalez</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>24</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>600</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>7.16</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>16</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>2</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>71.35441154562383</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>UC</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
         <v>0.1552725602942154</v>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>0.2028104817841576</v>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>0.2669621852259104</v>
       </c>
     </row>
@@ -3084,51 +3236,54 @@
         <v>63</v>
       </c>
       <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="n">
         <v>105</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Benjamin Schiavone</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>29</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>725</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>7.37</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>12</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>1.5</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>75.76629654236655</v>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>1.171747568405833</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>0.3985743453087134</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>-0.8138679104703294</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>0.252151334414739</v>
       </c>
     </row>
@@ -3137,51 +3292,54 @@
         <v>46</v>
       </c>
       <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="n">
         <v>87</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Josep Ferret</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>20</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>500</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>7.21</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>18</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>2.25</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>71.26635099398983</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>NW</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
         <v>-0.6579074461950786</v>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>0.2494209254804803</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>1.071139225634202</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>0.2208842349732012</v>
       </c>
     </row>
@@ -3190,51 +3348,54 @@
         <v>49</v>
       </c>
       <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="n">
         <v>161</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Grace Campbell</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>21</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>525</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>7.24</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>17</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>2.125</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>71.55918219663556</v>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>XU</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
         <v>-0.4546124445727551</v>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>0.2773871916982742</v>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>0.75697136961678</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>0.1932487055807664</v>
       </c>
     </row>
@@ -3243,51 +3404,54 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="n">
         <v>95</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Maia Egnal</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>27</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>675</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>7.1</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>13</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>1.625</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>75.49186244532724</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>NW</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L54" t="n">
+      <c r="M54" t="n">
         <v>0.7651575651611858</v>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>0.1468779493485698</v>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>-0.4997000544529074</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>0.1374451533522827</v>
       </c>
     </row>
@@ -3296,49 +3460,52 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="n">
         <v>23</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Matt Madsen</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>24</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>600</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>7.04</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>15</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>1.875</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>73.49135606060607</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>0</v>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
         <v>0.1552725602942154</v>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>0.09094541691298283</v>
       </c>
-      <c r="N55" t="n">
+      <c r="O55" t="n">
         <v>0.1286356575819363</v>
       </c>
-      <c r="O55" t="n">
+      <c r="P55" t="n">
         <v>0.1249512115963782</v>
       </c>
     </row>
@@ -3347,51 +3514,54 @@
         <v>59</v>
       </c>
       <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="n">
         <v>91</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Ryan Burrows</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>26</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>650</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>6.9</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>14</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>1.75</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>74.92179200509636</v>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L56" t="n">
+      <c r="M56" t="n">
         <v>0.5618625635388623</v>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>-0.03956382543672073</v>
       </c>
-      <c r="N56" t="n">
+      <c r="O56" t="n">
         <v>-0.1855321984354856</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
         <v>0.1122555132222187</v>
       </c>
     </row>
@@ -3400,51 +3570,54 @@
         <v>77</v>
       </c>
       <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="n">
         <v>81</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Jessica Price</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>28</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>700</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>7.46</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>11</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>1.375</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>78.58494014832354</v>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
         <v>0.9684525667835093</v>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>0.4824731439620943</v>
       </c>
-      <c r="N57" t="n">
+      <c r="O57" t="n">
         <v>-1.128035766487751</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>0.1076299814192841</v>
       </c>
     </row>
@@ -3453,51 +3626,54 @@
         <v>52</v>
       </c>
       <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" t="n">
         <v>173</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Johannes Smal</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>22</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>550</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>7.08</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>16</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>2</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>72.98625475089882</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>UNK</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>0.1282337718700411</v>
       </c>
-      <c r="N58" t="n">
+      <c r="O58" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>0.1065732808396559</v>
       </c>
     </row>
@@ -3506,51 +3682,54 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" t="n">
         <v>14</v>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Lucas Vieira</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>24</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>600</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>7.59</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>13</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>1.625</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>74.76898540589845</v>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>0.1552725602942154</v>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>0.6036602975725335</v>
       </c>
-      <c r="N59" t="n">
+      <c r="O59" t="n">
         <v>-0.4997000544529074</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>0.0864109344712805</v>
       </c>
     </row>
@@ -3559,51 +3738,54 @@
         <v>54</v>
       </c>
       <c r="B60" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" t="n">
         <v>146</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Zach Weed</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>22</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>550</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>6.99</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>16</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>2</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>73.43462166731695</v>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>IU</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L60" t="n">
+      <c r="M60" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>0.04433497321666018</v>
       </c>
-      <c r="N60" t="n">
+      <c r="O60" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O60" t="n">
+      <c r="P60" t="n">
         <v>0.07860701462186226</v>
       </c>
     </row>
@@ -3612,49 +3794,52 @@
         <v>51</v>
       </c>
       <c r="B61" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" t="n">
         <v>34</v>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Leo Doty</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>19</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>475</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>7.6</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>16</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>2</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>72.95831578947369</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>0</v>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
         <v>-0.8612024478174021</v>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>0.6129823863117979</v>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O61" t="n">
+      <c r="P61" t="n">
         <v>0.06486115069791799</v>
       </c>
     </row>
@@ -3663,49 +3848,52 @@
         <v>53</v>
       </c>
       <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" t="n">
         <v>69</v>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>Mark Lemmon</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>20</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>500</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>7.33</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>16</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>2</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>73.28987066848569</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>0</v>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
         <v>-0.6579074461950786</v>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>0.3612859903516551</v>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O62" t="n">
+      <c r="P62" t="n">
         <v>0.04872735258531156</v>
       </c>
     </row>
@@ -3714,49 +3902,52 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" t="n">
         <v>31</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Katherine Fisher</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>25</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>625</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>6.85</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>14</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>1.75</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>75.68735733055266</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>0</v>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>0.3585675619165389</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>-0.0861742691330442</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>-0.1855321984354856</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
         <v>0.02895369811600303</v>
       </c>
     </row>
@@ -3765,49 +3956,52 @@
         <v>71</v>
       </c>
       <c r="B64" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" t="n">
         <v>46</v>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Lydia Madsen</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>26</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>650</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>7.3</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>12</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>1.5</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>77.39246786090621</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>0</v>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L64" t="n">
+      <c r="M64" t="n">
         <v>0.5618625635388623</v>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>0.3333197241338612</v>
       </c>
-      <c r="N64" t="n">
+      <c r="O64" t="n">
         <v>-0.8138679104703294</v>
       </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
         <v>0.02710479240079807</v>
       </c>
     </row>
@@ -3816,49 +4010,52 @@
         <v>68</v>
       </c>
       <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="n">
         <v>28</v>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Connor Nichols</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>24</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>600</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>6.05</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>17</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>2.125</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>76.30442181169988</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>0</v>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
         <v>0.1552725602942154</v>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>-0.8319413682742088</v>
       </c>
-      <c r="N65" t="n">
+      <c r="O65" t="n">
         <v>0.75697136961678</v>
       </c>
-      <c r="O65" t="n">
+      <c r="P65" t="n">
         <v>0.02676752054559554</v>
       </c>
     </row>
@@ -3867,51 +4064,54 @@
         <v>61</v>
       </c>
       <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" t="n">
         <v>136</v>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>Anthony Pham</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>23</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>575</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>7.55</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>13</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>1.625</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>75.53544450596912</v>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>UT</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L66" t="n">
+      <c r="M66" t="n">
         <v>-0.04802244132810809</v>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>0.5663719426154752</v>
       </c>
-      <c r="N66" t="n">
+      <c r="O66" t="n">
         <v>-0.4997000544529074</v>
       </c>
-      <c r="O66" t="n">
+      <c r="P66" t="n">
         <v>0.006216482278153228</v>
       </c>
     </row>
@@ -3920,51 +4120,54 @@
         <v>74</v>
       </c>
       <c r="B67" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" t="n">
         <v>163</v>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Sarah Johnston</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>27</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>675</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>6.67</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>13</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>1.625</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>77.73051016372156</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>XU</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L67" t="n">
+      <c r="M67" t="n">
         <v>0.7651575651611858</v>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>-0.253971866439806</v>
       </c>
-      <c r="N67" t="n">
+      <c r="O67" t="n">
         <v>-0.4997000544529074</v>
       </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
         <v>0.003828548089490809</v>
       </c>
     </row>
@@ -3973,49 +4176,52 @@
         <v>56</v>
       </c>
       <c r="B68" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" t="n">
         <v>25</v>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Bill Carson</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>21</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>525</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>6.9</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>16</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>2</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>74.60483229813666</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>0</v>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L68" t="n">
+      <c r="M68" t="n">
         <v>-0.4546124445727551</v>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>-0.03956382543672073</v>
       </c>
-      <c r="N68" t="n">
+      <c r="O68" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>-0.01712425213670588</v>
       </c>
     </row>
@@ -4024,51 +4230,54 @@
         <v>65</v>
       </c>
       <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="n">
         <v>101</v>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Isabelle Day</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>23</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>575</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>6.42</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>16</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>75.91781091697142</v>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>NW</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L69" t="n">
+      <c r="M69" t="n">
         <v>-0.04802244132810809</v>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>-0.48702408492142</v>
       </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
         <v>-0.03074767088338998</v>
       </c>
     </row>
@@ -4077,49 +4286,52 @@
         <v>58</v>
       </c>
       <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" t="n">
         <v>137</v>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Connor Rybka</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>17</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>425</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>7.31</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>17</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>2.125</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>74.90914363885089</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>0</v>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L70" t="n">
+      <c r="M70" t="n">
         <v>-1.267792451062049</v>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>0.3426418128731256</v>
       </c>
-      <c r="N70" t="n">
+      <c r="O70" t="n">
         <v>0.75697136961678</v>
       </c>
-      <c r="O70" t="n">
+      <c r="P70" t="n">
         <v>-0.0560597561907145</v>
       </c>
     </row>
@@ -4128,51 +4340,54 @@
         <v>64</v>
       </c>
       <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" t="n">
         <v>85</v>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Emily Lynott</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>22</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>550</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>6.54</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>16</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>2</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>75.86156185710314</v>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>NW</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>-0.3751590200502452</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>-0.06122431646710619</v>
       </c>
     </row>
@@ -4181,51 +4396,54 @@
         <v>99</v>
       </c>
       <c r="B72" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" t="n">
         <v>15</v>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Aidan Schneider</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>31</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>775</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>4.57</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>16</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>2</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>87.78271800663514</v>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L72" t="n">
+      <c r="M72" t="n">
         <v>1.57833757165048</v>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>-2.211610501685363</v>
       </c>
-      <c r="N72" t="n">
+      <c r="O72" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O72" t="n">
+      <c r="P72" t="n">
         <v>-0.06348980547850848</v>
       </c>
     </row>
@@ -4234,51 +4452,54 @@
         <v>89</v>
       </c>
       <c r="B73" t="n">
+        <v>72</v>
+      </c>
+      <c r="C73" t="n">
         <v>138</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Arijana Smajlovic</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>30</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>750</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>6.13</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>12</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>1.5</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>82.15616878738444</v>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>UT</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L73" t="n">
+      <c r="M73" t="n">
         <v>1.375042570028156</v>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>-0.7573646583600924</v>
       </c>
-      <c r="N73" t="n">
+      <c r="O73" t="n">
         <v>-0.8138679104703294</v>
       </c>
-      <c r="O73" t="n">
+      <c r="P73" t="n">
         <v>-0.0653966662674218</v>
       </c>
     </row>
@@ -4287,51 +4508,54 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" t="n">
         <v>83</v>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Adam Durr</t>
         </is>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>13</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>325</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>8.470000000000001</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>16</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>2</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>77.5959209881028</v>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>NW</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L74" t="n">
+      <c r="M74" t="n">
         <v>-2.080972457551343</v>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>1.424004106627816</v>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O74" t="n">
+      <c r="P74" t="n">
         <v>-0.07138827910805647</v>
       </c>
     </row>
@@ -4340,51 +4564,54 @@
         <v>67</v>
       </c>
       <c r="B75" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" t="n">
         <v>147</v>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Ethan Music</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>21</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>525</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>7.7</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>13</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>1.625</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>76.25784348984349</v>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>UT</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L75" t="n">
+      <c r="M75" t="n">
         <v>-0.4546124445727551</v>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>0.7062032737044439</v>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>-0.4997000544529074</v>
       </c>
-      <c r="O75" t="n">
+      <c r="P75" t="n">
         <v>-0.08270307510707287</v>
       </c>
     </row>
@@ -4393,51 +4620,54 @@
         <v>78</v>
       </c>
       <c r="B76" t="n">
+        <v>75</v>
+      </c>
+      <c r="C76" t="n">
         <v>88</v>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Reed Zimmerman</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>26</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>650</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>6.6</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>13</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>1.625</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>78.58991142191142</v>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>NW</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L76" t="n">
+      <c r="M76" t="n">
         <v>0.5618625635388623</v>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>-0.3192264876146582</v>
       </c>
-      <c r="N76" t="n">
+      <c r="O76" t="n">
         <v>-0.4997000544529074</v>
       </c>
-      <c r="O76" t="n">
+      <c r="P76" t="n">
         <v>-0.08568799284290111</v>
       </c>
     </row>
@@ -4446,51 +4676,54 @@
         <v>66</v>
       </c>
       <c r="B77" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" t="n">
         <v>102</v>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Reilly Goldstrom</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>22</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>550</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>7.12</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>14</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>1.75</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>76.11204757040713</v>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>NW</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L77" t="n">
+      <c r="M77" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>0.1655221268270994</v>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
         <v>-0.1855321984354856</v>
       </c>
-      <c r="O77" t="n">
+      <c r="P77" t="n">
         <v>-0.09044250485293925</v>
       </c>
     </row>
@@ -4499,49 +4732,52 @@
         <v>88</v>
       </c>
       <c r="B78" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" t="n">
         <v>42</v>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Avery Schroeder</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>29</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>725</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>5.57</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>14</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>1.75</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>82.14836263940357</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>0</v>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L78" t="n">
+      <c r="M78" t="n">
         <v>1.171747568405833</v>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>-1.279401627758907</v>
       </c>
-      <c r="N78" t="n">
+      <c r="O78" t="n">
         <v>-0.1855321984354856</v>
       </c>
-      <c r="O78" t="n">
+      <c r="P78" t="n">
         <v>-0.09772875259618664</v>
       </c>
     </row>
@@ -4550,51 +4786,54 @@
         <v>69</v>
       </c>
       <c r="B79" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" t="n">
         <v>86</v>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Sophia Jukovich</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>22</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>550</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>7.37</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>13</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>1.625</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>76.98139275649723</v>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>NW</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L79" t="n">
+      <c r="M79" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>0.3985743453087134</v>
       </c>
-      <c r="N79" t="n">
+      <c r="O79" t="n">
         <v>-0.4997000544529074</v>
       </c>
-      <c r="O79" t="n">
+      <c r="P79" t="n">
         <v>-0.1174810506982085</v>
       </c>
     </row>
@@ -4603,51 +4842,54 @@
         <v>73</v>
       </c>
       <c r="B80" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" t="n">
         <v>103</v>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Avery Blaszak</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>21</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>525</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>6.36</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>16</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>2</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>77.63864690026955</v>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>NW</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L80" t="n">
+      <c r="M80" t="n">
         <v>-0.4546124445727551</v>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>-0.5429566173570071</v>
       </c>
-      <c r="N80" t="n">
+      <c r="O80" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O80" t="n">
+      <c r="P80" t="n">
         <v>-0.184921849443468</v>
       </c>
     </row>
@@ -4656,51 +4898,54 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" t="n">
         <v>117</v>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Meghan Murray</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>27</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>675</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>6.7</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>11</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>1.375</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>82.76779818081312</v>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>UM</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L81" t="n">
+      <c r="M81" t="n">
         <v>0.7651575651611858</v>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>-0.2260056002220121</v>
       </c>
-      <c r="N81" t="n">
+      <c r="O81" t="n">
         <v>-1.128035766487751</v>
       </c>
-      <c r="O81" t="n">
+      <c r="P81" t="n">
         <v>-0.1962946005161925</v>
       </c>
     </row>
@@ -4709,51 +4954,54 @@
         <v>70</v>
       </c>
       <c r="B82" t="n">
+        <v>81</v>
+      </c>
+      <c r="C82" t="n">
         <v>164</v>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>Mary Grace Jacobs</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>19</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>475</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>6.74</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>16</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>2</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>77.09761143214118</v>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>XU</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L82" t="n">
+      <c r="M82" t="n">
         <v>-0.8612024478174021</v>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>-0.1887172452649538</v>
       </c>
-      <c r="N82" t="n">
+      <c r="O82" t="n">
         <v>0.4428035135993582</v>
       </c>
-      <c r="O82" t="n">
+      <c r="P82" t="n">
         <v>-0.2023720598276659</v>
       </c>
     </row>
@@ -4762,49 +5010,52 @@
         <v>79</v>
       </c>
       <c r="B83" t="n">
+        <v>82</v>
+      </c>
+      <c r="C83" t="n">
         <v>49</v>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>Christina Lowhorn</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>24</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>600</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>6.65</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>13</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>1.625</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>79.36060516676307</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>0</v>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L83" t="n">
+      <c r="M83" t="n">
         <v>0.1552725602942154</v>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>-0.2726160439183348</v>
       </c>
-      <c r="N83" t="n">
+      <c r="O83" t="n">
         <v>-0.4997000544529074</v>
       </c>
-      <c r="O83" t="n">
+      <c r="P83" t="n">
         <v>-0.205681179359009</v>
       </c>
     </row>
@@ -4813,51 +5064,54 @@
         <v>76</v>
       </c>
       <c r="B84" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" t="n">
         <v>155</v>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>Jack Austin</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>22</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>550</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>7.04</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>13</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>1.625</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>78.54949825174825</v>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>UC</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L84" t="n">
+      <c r="M84" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>0.09094541691298283</v>
       </c>
-      <c r="N84" t="n">
+      <c r="O84" t="n">
         <v>-0.4997000544529074</v>
       </c>
-      <c r="O84" t="n">
+      <c r="P84" t="n">
         <v>-0.2200240268301187</v>
       </c>
     </row>
@@ -4866,51 +5120,54 @@
         <v>75</v>
       </c>
       <c r="B85" t="n">
+        <v>84</v>
+      </c>
+      <c r="C85" t="n">
         <v>114</v>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Benjamin Loney Siles</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>20</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>500</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>6.95</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>14</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>1.75</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>78.4503609455293</v>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>UM</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L85" t="n">
+      <c r="M85" t="n">
         <v>-0.6579074461950786</v>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>0.00704661825960191</v>
       </c>
-      <c r="N85" t="n">
+      <c r="O85" t="n">
         <v>-0.1855321984354856</v>
       </c>
-      <c r="O85" t="n">
+      <c r="P85" t="n">
         <v>-0.2787976754569874</v>
       </c>
     </row>
@@ -4919,49 +5176,52 @@
         <v>87</v>
       </c>
       <c r="B86" t="n">
+        <v>85</v>
+      </c>
+      <c r="C86" t="n">
         <v>18</v>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>Frances Wymbs</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>24</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>600</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>5.66</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>15</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>1.875</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>82.03005064782097</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>0</v>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L86" t="n">
+      <c r="M86" t="n">
         <v>0.1552725602942154</v>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>-1.195502829105527</v>
       </c>
-      <c r="N86" t="n">
+      <c r="O86" t="n">
         <v>0.1286356575819363</v>
       </c>
-      <c r="O86" t="n">
+      <c r="P86" t="n">
         <v>-0.3038648704097917</v>
       </c>
     </row>
@@ -4970,51 +5230,54 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
+        <v>86</v>
+      </c>
+      <c r="C87" t="n">
         <v>162</v>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>Paige Pyka</t>
         </is>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>24</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>600</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>5.93</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>14</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>1.75</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>81.81815313579058</v>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>XU</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L87" t="n">
+      <c r="M87" t="n">
         <v>0.1552725602942154</v>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>-0.9438064331453837</v>
       </c>
-      <c r="N87" t="n">
+      <c r="O87" t="n">
         <v>-0.1855321984354856</v>
       </c>
-      <c r="O87" t="n">
+      <c r="P87" t="n">
         <v>-0.3246886904288846</v>
       </c>
     </row>
@@ -5023,49 +5286,52 @@
         <v>81</v>
       </c>
       <c r="B88" t="n">
+        <v>87</v>
+      </c>
+      <c r="C88" t="n">
         <v>45</v>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>Grant Haldeman</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>20</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>500</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>7.1</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>13</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>1.625</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>79.74485503791983</v>
       </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
         <v>0</v>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L88" t="n">
+      <c r="M88" t="n">
         <v>-0.6579074461950786</v>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>0.1468779493485698</v>
       </c>
-      <c r="N88" t="n">
+      <c r="O88" t="n">
         <v>-0.4997000544529074</v>
       </c>
-      <c r="O88" t="n">
+      <c r="P88" t="n">
         <v>-0.3369098504331388</v>
       </c>
     </row>
@@ -5074,49 +5340,52 @@
         <v>83</v>
       </c>
       <c r="B89" t="n">
+        <v>88</v>
+      </c>
+      <c r="C89" t="n">
         <v>35</v>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>Mack Owens</t>
         </is>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>22</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>550</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>6.97</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>12</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>1.5</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>81.28583122472936</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>0</v>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="L89" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L89" t="n">
+      <c r="M89" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>0.02569079573813064</v>
       </c>
-      <c r="N89" t="n">
+      <c r="O89" t="n">
         <v>-0.8138679104703294</v>
       </c>
-      <c r="O89" t="n">
+      <c r="P89" t="n">
         <v>-0.3464981858942101</v>
       </c>
     </row>
@@ -5125,51 +5394,54 @@
         <v>80</v>
       </c>
       <c r="B90" t="n">
+        <v>89</v>
+      </c>
+      <c r="C90" t="n">
         <v>97</v>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Nina Kronengold</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>19</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>475</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>6.89</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>14</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>1.75</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>79.62267232668027</v>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>NW</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L90" t="n">
+      <c r="M90" t="n">
         <v>-0.8612024478174021</v>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>-0.04888591417598592</v>
       </c>
-      <c r="N90" t="n">
+      <c r="O90" t="n">
         <v>-0.1855321984354856</v>
       </c>
-      <c r="O90" t="n">
+      <c r="P90" t="n">
         <v>-0.3652068534762912</v>
       </c>
     </row>
@@ -5178,49 +5450,52 @@
         <v>82</v>
       </c>
       <c r="B91" t="n">
+        <v>90</v>
+      </c>
+      <c r="C91" t="n">
         <v>55</v>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Bryan Draughon</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>20</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>500</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>6.8</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>13</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>1.625</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>81.27684343891403</v>
       </c>
-      <c r="J91" t="n">
+      <c r="K91" t="n">
         <v>0</v>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L91" t="n">
+      <c r="M91" t="n">
         <v>-0.6579074461950786</v>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>-0.1327847128293668</v>
       </c>
-      <c r="N91" t="n">
+      <c r="O91" t="n">
         <v>-0.4997000544529074</v>
       </c>
-      <c r="O91" t="n">
+      <c r="P91" t="n">
         <v>-0.4301307378257843</v>
       </c>
     </row>
@@ -5229,51 +5504,54 @@
         <v>84</v>
       </c>
       <c r="B92" t="n">
+        <v>91</v>
+      </c>
+      <c r="C92" t="n">
         <v>19</v>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Zachary Lascola</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>20</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>500</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>6.11</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>15</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>1.875</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>81.55595482815058</v>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L92" t="n">
+      <c r="M92" t="n">
         <v>-0.6579074461950786</v>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>-0.776008835838621</v>
       </c>
-      <c r="N92" t="n">
+      <c r="O92" t="n">
         <v>0.1286356575819363</v>
       </c>
-      <c r="O92" t="n">
+      <c r="P92" t="n">
         <v>-0.435093541483921</v>
       </c>
     </row>
@@ -5282,49 +5560,52 @@
         <v>85</v>
       </c>
       <c r="B93" t="n">
+        <v>92</v>
+      </c>
+      <c r="C93" t="n">
         <v>41</v>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>David Reed</t>
         </is>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>19</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>475</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>6.23</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>15</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>1.875</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>81.64210729069866</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>0</v>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L93" t="n">
+      <c r="M93" t="n">
         <v>-0.8612024478174021</v>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>-0.6641437709674463</v>
       </c>
-      <c r="N93" t="n">
+      <c r="O93" t="n">
         <v>0.1286356575819363</v>
       </c>
-      <c r="O93" t="n">
+      <c r="P93" t="n">
         <v>-0.4655701870676374</v>
       </c>
     </row>
@@ -5333,49 +5614,52 @@
         <v>96</v>
       </c>
       <c r="B94" t="n">
+        <v>93</v>
+      </c>
+      <c r="C94" t="n">
         <v>71</v>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>Abe Roth</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>24</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>600</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>6.47</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>11</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>1.375</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>85.59485209123696</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>0</v>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L94" t="n">
+      <c r="M94" t="n">
         <v>0.1552725602942154</v>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>-0.4404136412250974</v>
       </c>
-      <c r="N94" t="n">
+      <c r="O94" t="n">
         <v>-1.128035766487751</v>
       </c>
-      <c r="O94" t="n">
+      <c r="P94" t="n">
         <v>-0.4710589491395443</v>
       </c>
     </row>
@@ -5384,51 +5668,54 @@
         <v>98</v>
       </c>
       <c r="B95" t="n">
+        <v>94</v>
+      </c>
+      <c r="C95" t="n">
         <v>158</v>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>Hope Tamoney</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>21</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>525</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>7.42</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>10</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>1.25</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>86.05073135669363</v>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="L95" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L95" t="n">
+      <c r="M95" t="n">
         <v>-0.4546124445727551</v>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>0.4451847890050361</v>
       </c>
-      <c r="N95" t="n">
+      <c r="O95" t="n">
         <v>-1.442203622505173</v>
       </c>
-      <c r="O95" t="n">
+      <c r="P95" t="n">
         <v>-0.4838770926909641</v>
       </c>
     </row>
@@ -5437,49 +5724,52 @@
         <v>90</v>
       </c>
       <c r="B96" t="n">
+        <v>95</v>
+      </c>
+      <c r="C96" t="n">
         <v>73</v>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>Bill Marek</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>19</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>475</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>7.17</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>12</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>1.5</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>82.65384247228951</v>
       </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
         <v>0</v>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L96" t="n">
+      <c r="M96" t="n">
         <v>-0.8612024478174021</v>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>0.212132570523422</v>
       </c>
-      <c r="N96" t="n">
+      <c r="O96" t="n">
         <v>-0.8138679104703294</v>
       </c>
-      <c r="O96" t="n">
+      <c r="P96" t="n">
         <v>-0.4876459292547698</v>
       </c>
     </row>
@@ -5488,49 +5778,52 @@
         <v>92</v>
       </c>
       <c r="B97" t="n">
+        <v>96</v>
+      </c>
+      <c r="C97" t="n">
         <v>29</v>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>Tim Reed</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>20</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>500</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>6.85</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>12</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>1.5</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>83.3968087591241</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>0</v>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L97" t="n">
+      <c r="M97" t="n">
         <v>-0.6579074461950786</v>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>-0.0861742691330442</v>
       </c>
-      <c r="N97" t="n">
+      <c r="O97" t="n">
         <v>-0.8138679104703294</v>
       </c>
-      <c r="O97" t="n">
+      <c r="P97" t="n">
         <v>-0.5193165419328173</v>
       </c>
     </row>
@@ -5539,49 +5832,52 @@
         <v>94</v>
       </c>
       <c r="B98" t="n">
+        <v>97</v>
+      </c>
+      <c r="C98" t="n">
         <v>61</v>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>Katy Exline</t>
         </is>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>22</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>550</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>6.71</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>11</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>1.375</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>85.47464083457527</v>
       </c>
-      <c r="J98" t="n">
+      <c r="K98" t="n">
         <v>0</v>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L98" t="n">
+      <c r="M98" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>-0.2166835114827478</v>
       </c>
-      <c r="N98" t="n">
+      <c r="O98" t="n">
         <v>-1.128035766487751</v>
       </c>
-      <c r="O98" t="n">
+      <c r="P98" t="n">
         <v>-0.5320122403069768</v>
       </c>
     </row>
@@ -5590,49 +5886,52 @@
         <v>109</v>
       </c>
       <c r="B99" t="n">
+        <v>98</v>
+      </c>
+      <c r="C99" t="n">
         <v>43</v>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Allie Schroeder</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>28</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>700</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>5.64</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>10</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>1.25</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>92.6316129685917</v>
       </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
         <v>0</v>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="L99" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L99" t="n">
+      <c r="M99" t="n">
         <v>0.9684525667835093</v>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>-1.214147006584056</v>
       </c>
-      <c r="N99" t="n">
+      <c r="O99" t="n">
         <v>-1.442203622505173</v>
       </c>
-      <c r="O99" t="n">
+      <c r="P99" t="n">
         <v>-0.56263268743524</v>
       </c>
     </row>
@@ -5641,51 +5940,54 @@
         <v>110</v>
       </c>
       <c r="B100" t="n">
+        <v>99</v>
+      </c>
+      <c r="C100" t="n">
         <v>157</v>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>Annika Simovart</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>25</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>625</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>6.42</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>9</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>1.125</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>92.85996859813085</v>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>UC</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L100" t="n">
+      <c r="M100" t="n">
         <v>0.3585675619165389</v>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>-0.48702408492142</v>
       </c>
-      <c r="N100" t="n">
+      <c r="O100" t="n">
         <v>-1.756371478522595</v>
       </c>
-      <c r="O100" t="n">
+      <c r="P100" t="n">
         <v>-0.6282760005091587</v>
       </c>
     </row>
@@ -5694,49 +5996,52 @@
         <v>93</v>
       </c>
       <c r="B101" t="n">
+        <v>100</v>
+      </c>
+      <c r="C101" t="n">
         <v>52</v>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>Stephanie Norton</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>17</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>425</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>6.8</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>13</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>1.625</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>84.17173755656108</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
         <v>0</v>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="L101" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L101" t="n">
+      <c r="M101" t="n">
         <v>-1.267792451062049</v>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>-0.1327847128293668</v>
       </c>
-      <c r="N101" t="n">
+      <c r="O101" t="n">
         <v>-0.4997000544529074</v>
       </c>
-      <c r="O101" t="n">
+      <c r="P101" t="n">
         <v>-0.6334257394481079</v>
       </c>
     </row>
@@ -5745,49 +6050,52 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>101</v>
+      </c>
+      <c r="C102" t="n">
         <v>64</v>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>Brittany Peterson</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>23</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>575</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>6.16</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>11</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>1.375</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>88.10690344438171</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>0</v>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="L102" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L102" t="n">
+      <c r="M102" t="n">
         <v>-0.04802244132810809</v>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>-0.7293983921422984</v>
       </c>
-      <c r="N102" t="n">
+      <c r="O102" t="n">
         <v>-1.128035766487751</v>
       </c>
-      <c r="O102" t="n">
+      <c r="P102" t="n">
         <v>-0.6351521999860525</v>
       </c>
     </row>
@@ -5796,51 +6104,54 @@
         <v>97</v>
       </c>
       <c r="B103" t="n">
+        <v>102</v>
+      </c>
+      <c r="C103" t="n">
         <v>167</v>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>Aiden Ronk</t>
         </is>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>19</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>475</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>6.6</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>12</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>1.5</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>85.62354704944178</v>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>XU</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="L103" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L103" t="n">
+      <c r="M103" t="n">
         <v>-0.8612024478174021</v>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>-0.3192264876146582</v>
       </c>
-      <c r="N103" t="n">
+      <c r="O103" t="n">
         <v>-0.8138679104703294</v>
       </c>
-      <c r="O103" t="n">
+      <c r="P103" t="n">
         <v>-0.6647656153007966</v>
       </c>
     </row>
@@ -5849,49 +6160,52 @@
         <v>101</v>
       </c>
       <c r="B104" t="n">
+        <v>103</v>
+      </c>
+      <c r="C104" t="n">
         <v>39</v>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>Meg Miller-Herring</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>22</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>550</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>5.25</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>14</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>1.75</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>88.44604329004329</v>
       </c>
-      <c r="J104" t="n">
+      <c r="K104" t="n">
         <v>0</v>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="L104" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L104" t="n">
+      <c r="M104" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>-1.577708467415374</v>
       </c>
-      <c r="N104" t="n">
+      <c r="O104" t="n">
         <v>-0.1855321984354856</v>
       </c>
-      <c r="O104" t="n">
+      <c r="P104" t="n">
         <v>-0.6715193696004302</v>
       </c>
     </row>
@@ -5900,49 +6214,52 @@
         <v>95</v>
       </c>
       <c r="B105" t="n">
+        <v>104</v>
+      </c>
+      <c r="C105" t="n">
         <v>44</v>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>Tara Schroeder</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>18</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>450</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>6.05</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>14</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>1.75</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>85.55027521972977</v>
       </c>
-      <c r="J105" t="n">
+      <c r="K105" t="n">
         <v>0</v>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="L105" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L105" t="n">
+      <c r="M105" t="n">
         <v>-1.064497449439725</v>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>-0.8319413682742088</v>
       </c>
-      <c r="N105" t="n">
+      <c r="O105" t="n">
         <v>-0.1855321984354856</v>
       </c>
-      <c r="O105" t="n">
+      <c r="P105" t="n">
         <v>-0.6939903387164733</v>
       </c>
     </row>
@@ -5951,49 +6268,52 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
+        <v>105</v>
+      </c>
+      <c r="C106" t="n">
         <v>65</v>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>Francesca Gordon</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>26</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>650</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>4.96</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>12</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>1.5</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>93.32602729528537</v>
       </c>
-      <c r="J106" t="n">
+      <c r="K106" t="n">
         <v>0</v>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L106" t="n">
+      <c r="M106" t="n">
         <v>0.5618625635388623</v>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>-1.848049040854046</v>
       </c>
-      <c r="N106" t="n">
+      <c r="O106" t="n">
         <v>-0.8138679104703294</v>
       </c>
-      <c r="O106" t="n">
+      <c r="P106" t="n">
         <v>-0.7000181292618377</v>
       </c>
     </row>
@@ -6002,49 +6322,52 @@
         <v>104</v>
       </c>
       <c r="B107" t="n">
+        <v>106</v>
+      </c>
+      <c r="C107" t="n">
         <v>66</v>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>Shannon Kiser</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>23</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>575</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>5.82</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>11</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>1.375</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>90.4450767830705</v>
       </c>
-      <c r="J107" t="n">
+      <c r="K107" t="n">
         <v>0</v>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L107" t="n">
+      <c r="M107" t="n">
         <v>-0.04802244132810809</v>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>-1.046349409277293</v>
       </c>
-      <c r="N107" t="n">
+      <c r="O107" t="n">
         <v>-1.128035766487751</v>
       </c>
-      <c r="O107" t="n">
+      <c r="P107" t="n">
         <v>-0.7408025390310509</v>
       </c>
     </row>
@@ -6053,51 +6376,54 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
+        <v>107</v>
+      </c>
+      <c r="C108" t="n">
         <v>152</v>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>Lindiwe Kounga</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>23</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>575</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>5.07</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>13</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>1.625</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>91.50887711173999</v>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="L108" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L108" t="n">
+      <c r="M108" t="n">
         <v>-0.04802244132810809</v>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>-1.745506064722135</v>
       </c>
-      <c r="N108" t="n">
+      <c r="O108" t="n">
         <v>-0.4997000544529074</v>
       </c>
-      <c r="O108" t="n">
+      <c r="P108" t="n">
         <v>-0.764409520167717</v>
       </c>
     </row>
@@ -6106,49 +6432,52 @@
         <v>103</v>
       </c>
       <c r="B109" t="n">
+        <v>108</v>
+      </c>
+      <c r="C109" t="n">
         <v>51</v>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>Teresa Kenney</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>20</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>500</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>6.16</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>11</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>1.375</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>90.2466077922078</v>
       </c>
-      <c r="J109" t="n">
+      <c r="K109" t="n">
         <v>0</v>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="L109" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L109" t="n">
+      <c r="M109" t="n">
         <v>-0.6579074461950786</v>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>-0.7293983921422984</v>
       </c>
-      <c r="N109" t="n">
+      <c r="O109" t="n">
         <v>-1.128035766487751</v>
       </c>
-      <c r="O109" t="n">
+      <c r="P109" t="n">
         <v>-0.838447201608376</v>
       </c>
     </row>
@@ -6157,51 +6486,54 @@
         <v>102</v>
       </c>
       <c r="B110" t="n">
+        <v>109</v>
+      </c>
+      <c r="C110" t="n">
         <v>84</v>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>Isabella Toth</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>13</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>325</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>6.55</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>14</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>1.75</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>89.44988306350139</v>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>NW</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="L110" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L110" t="n">
+      <c r="M110" t="n">
         <v>-2.080972457551343</v>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>-0.3658369313109808</v>
       </c>
-      <c r="N110" t="n">
+      <c r="O110" t="n">
         <v>-0.1855321984354856</v>
       </c>
-      <c r="O110" t="n">
+      <c r="P110" t="n">
         <v>-0.8774471957659364</v>
       </c>
     </row>
@@ -6210,49 +6542,52 @@
         <v>106</v>
       </c>
       <c r="B111" t="n">
+        <v>110</v>
+      </c>
+      <c r="C111" t="n">
         <v>63</v>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>Heidi Rolland</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>20</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>500</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>6.03</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>11</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>1.375</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>91.10948065731947</v>
       </c>
-      <c r="J111" t="n">
+      <c r="K111" t="n">
         <v>0</v>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="L111" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L111" t="n">
+      <c r="M111" t="n">
         <v>-0.6579074461950786</v>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>-0.8505855457527376</v>
       </c>
-      <c r="N111" t="n">
+      <c r="O111" t="n">
         <v>-1.128035766487751</v>
       </c>
-      <c r="O111" t="n">
+      <c r="P111" t="n">
         <v>-0.8788429194785224</v>
       </c>
     </row>
@@ -6261,49 +6596,52 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
+        <v>111</v>
+      </c>
+      <c r="C112" t="n">
         <v>58</v>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>Maria Busken</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>22</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>550</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>5.22</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>12</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>1.5</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>93.144508533612</v>
       </c>
-      <c r="J112" t="n">
+      <c r="K112" t="n">
         <v>0</v>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="L112" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L112" t="n">
+      <c r="M112" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>-1.605674733633168</v>
       </c>
-      <c r="N112" t="n">
+      <c r="O112" t="n">
         <v>-0.8138679104703294</v>
       </c>
-      <c r="O112" t="n">
+      <c r="P112" t="n">
         <v>-0.8902866956846429</v>
       </c>
     </row>
@@ -6312,51 +6650,54 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
+        <v>112</v>
+      </c>
+      <c r="C113" t="n">
         <v>116</v>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>Nikki Watson</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>23</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>575</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>5.94</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>9</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>1.125</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>97.10442629190456</v>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>UM</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="L113" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L113" t="n">
+      <c r="M113" t="n">
         <v>-0.04802244132810809</v>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>-0.9344843444061185</v>
       </c>
-      <c r="N113" t="n">
+      <c r="O113" t="n">
         <v>-1.756371478522595</v>
       </c>
-      <c r="O113" t="n">
+      <c r="P113" t="n">
         <v>-0.9129594214189405</v>
       </c>
     </row>
@@ -6365,51 +6706,54 @@
         <v>105</v>
       </c>
       <c r="B114" t="n">
+        <v>113</v>
+      </c>
+      <c r="C114" t="n">
         <v>126</v>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>Nicholas Lusardi</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>17</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>425</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>6.5</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>11</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>1.375</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>91.04793747429042</v>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>UM</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="L114" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L114" t="n">
+      <c r="M114" t="n">
         <v>-1.267792451062049</v>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>-0.4124473750073035</v>
       </c>
-      <c r="N114" t="n">
+      <c r="O114" t="n">
         <v>-1.128035766487751</v>
       </c>
-      <c r="O114" t="n">
+      <c r="P114" t="n">
         <v>-0.9360918641857013</v>
       </c>
     </row>
@@ -6418,49 +6762,52 @@
         <v>108</v>
       </c>
       <c r="B115" t="n">
+        <v>114</v>
+      </c>
+      <c r="C115" t="n">
         <v>53</v>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>Genesis Barnes</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>18</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>450</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>5.78</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>12</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>1.5</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>91.88247443291041</v>
       </c>
-      <c r="J115" t="n">
+      <c r="K115" t="n">
         <v>0</v>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="L115" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L115" t="n">
+      <c r="M115" t="n">
         <v>-1.064497449439725</v>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>-1.083637764234352</v>
       </c>
-      <c r="N115" t="n">
+      <c r="O115" t="n">
         <v>-0.8138679104703294</v>
       </c>
-      <c r="O115" t="n">
+      <c r="P115" t="n">
         <v>-0.9873343747148021</v>
       </c>
     </row>
@@ -6469,51 +6816,54 @@
         <v>123</v>
       </c>
       <c r="B116" t="n">
+        <v>115</v>
+      </c>
+      <c r="C116" t="n">
         <v>96</v>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>Olivia Sotos</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>21</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>525</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>7.04</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>6</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>0.75</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>112.6442608225108</v>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>NW</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="L116" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L116" t="n">
+      <c r="M116" t="n">
         <v>-0.4546124445727551</v>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>0.09094541691298283</v>
       </c>
-      <c r="N116" t="n">
+      <c r="O116" t="n">
         <v>-2.698875046574861</v>
       </c>
-      <c r="O116" t="n">
+      <c r="P116" t="n">
         <v>-1.020847358078211</v>
       </c>
     </row>
@@ -6522,49 +6872,52 @@
         <v>114</v>
       </c>
       <c r="B117" t="n">
+        <v>116</v>
+      </c>
+      <c r="C117" t="n">
         <v>54</v>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>Joseph Buckley</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>22</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>550</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>5.11</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>11</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>1.375</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>96.97941362746843</v>
       </c>
-      <c r="J117" t="n">
+      <c r="K117" t="n">
         <v>0</v>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="L117" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L117" t="n">
+      <c r="M117" t="n">
         <v>-0.2513174429504316</v>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>-1.708217709765077</v>
       </c>
-      <c r="N117" t="n">
+      <c r="O117" t="n">
         <v>-1.128035766487751</v>
       </c>
-      <c r="O117" t="n">
+      <c r="P117" t="n">
         <v>-1.029190306401087</v>
       </c>
     </row>
@@ -6573,49 +6926,52 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
+        <v>117</v>
+      </c>
+      <c r="C118" t="n">
         <v>76</v>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>Briana Sam</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>18</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>450</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>6.47</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>9</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>1.125</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>97.66678138416626</v>
       </c>
-      <c r="J118" t="n">
+      <c r="K118" t="n">
         <v>0</v>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="L118" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L118" t="n">
+      <c r="M118" t="n">
         <v>-1.064497449439725</v>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>-0.4404136412250974</v>
       </c>
-      <c r="N118" t="n">
+      <c r="O118" t="n">
         <v>-1.756371478522595</v>
       </c>
-      <c r="O118" t="n">
+      <c r="P118" t="n">
         <v>-1.087094189729139</v>
       </c>
     </row>
@@ -6624,49 +6980,52 @@
         <v>113</v>
       </c>
       <c r="B119" t="n">
+        <v>118</v>
+      </c>
+      <c r="C119" t="n">
         <v>37</v>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>Laura Miller</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>17</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>425</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>5.29</v>
       </c>
-      <c r="G119" t="n">
+      <c r="H119" t="n">
         <v>13</v>
       </c>
-      <c r="H119" t="n">
+      <c r="I119" t="n">
         <v>1.625</v>
       </c>
-      <c r="I119" t="n">
+      <c r="J119" t="n">
         <v>94.5211059542037</v>
       </c>
-      <c r="J119" t="n">
+      <c r="K119" t="n">
         <v>0</v>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="L119" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L119" t="n">
+      <c r="M119" t="n">
         <v>-1.267792451062049</v>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>-1.540420112458315</v>
       </c>
-      <c r="N119" t="n">
+      <c r="O119" t="n">
         <v>-0.4997000544529074</v>
       </c>
-      <c r="O119" t="n">
+      <c r="P119" t="n">
         <v>-1.102637539324424</v>
       </c>
     </row>
@@ -6675,49 +7034,52 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>119</v>
+      </c>
+      <c r="C120" t="n">
         <v>67</v>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>Elena Mary</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>17</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>425</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>6.55</v>
       </c>
-      <c r="G120" t="n">
+      <c r="H120" t="n">
         <v>9</v>
       </c>
-      <c r="H120" t="n">
+      <c r="I120" t="n">
         <v>1.125</v>
       </c>
-      <c r="I120" t="n">
+      <c r="J120" t="n">
         <v>98.27354348151475</v>
       </c>
-      <c r="J120" t="n">
+      <c r="K120" t="n">
         <v>0</v>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
         <v>-1.267792451062049</v>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>-0.3658369313109808</v>
       </c>
-      <c r="N120" t="n">
+      <c r="O120" t="n">
         <v>-1.756371478522595</v>
       </c>
-      <c r="O120" t="n">
+      <c r="P120" t="n">
         <v>-1.130000286965208</v>
       </c>
     </row>
@@ -6726,49 +7088,52 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>120</v>
+      </c>
+      <c r="C121" t="n">
         <v>56</v>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>Lindy Newman</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>18</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>450</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>6.1</v>
       </c>
-      <c r="G121" t="n">
+      <c r="H121" t="n">
         <v>9</v>
       </c>
-      <c r="H121" t="n">
+      <c r="I121" t="n">
         <v>1.125</v>
       </c>
-      <c r="I121" t="n">
+      <c r="J121" t="n">
         <v>99.97814936247724</v>
       </c>
-      <c r="J121" t="n">
+      <c r="K121" t="n">
         <v>0</v>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="L121" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L121" t="n">
+      <c r="M121" t="n">
         <v>-1.064497449439725</v>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>-0.7853309245778862</v>
       </c>
-      <c r="N121" t="n">
+      <c r="O121" t="n">
         <v>-1.756371478522595</v>
       </c>
-      <c r="O121" t="n">
+      <c r="P121" t="n">
         <v>-1.202066617513402</v>
       </c>
     </row>
@@ -6777,51 +7142,54 @@
         <v>116</v>
       </c>
       <c r="B122" t="n">
+        <v>121</v>
+      </c>
+      <c r="C122" t="n">
         <v>108</v>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>Ava Bach</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>14</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>350</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>5.18</v>
       </c>
-      <c r="G122" t="n">
+      <c r="H122" t="n">
         <v>14</v>
       </c>
-      <c r="H122" t="n">
+      <c r="I122" t="n">
         <v>1.75</v>
       </c>
-      <c r="I122" t="n">
+      <c r="J122" t="n">
         <v>97.60242471042471</v>
       </c>
-      <c r="J122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>OSU</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="L122" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L122" t="n">
+      <c r="M122" t="n">
         <v>-1.877677455929019</v>
       </c>
-      <c r="M122" t="n">
+      <c r="N122" t="n">
         <v>-1.642963088590226</v>
       </c>
-      <c r="N122" t="n">
+      <c r="O122" t="n">
         <v>-0.1855321984354856</v>
       </c>
-      <c r="O122" t="n">
+      <c r="P122" t="n">
         <v>-1.235390914318244</v>
       </c>
     </row>
@@ -6830,49 +7198,52 @@
         <v>120</v>
       </c>
       <c r="B123" t="n">
+        <v>122</v>
+      </c>
+      <c r="C123" t="n">
         <v>36</v>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>Cory Sherman</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>19</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>475</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>5.66</v>
       </c>
-      <c r="G123" t="n">
+      <c r="H123" t="n">
         <v>9</v>
       </c>
-      <c r="H123" t="n">
+      <c r="I123" t="n">
         <v>1.125</v>
       </c>
-      <c r="I123" t="n">
+      <c r="J123" t="n">
         <v>102.1608401215052</v>
       </c>
-      <c r="J123" t="n">
+      <c r="K123" t="n">
         <v>0</v>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="L123" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L123" t="n">
+      <c r="M123" t="n">
         <v>-0.8612024478174021</v>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>-1.195502829105527</v>
       </c>
-      <c r="N123" t="n">
+      <c r="O123" t="n">
         <v>-1.756371478522595</v>
       </c>
-      <c r="O123" t="n">
+      <c r="P123" t="n">
         <v>-1.271025585148508</v>
       </c>
     </row>
@@ -6881,49 +7252,52 @@
         <v>121</v>
       </c>
       <c r="B124" t="n">
+        <v>123</v>
+      </c>
+      <c r="C124" t="n">
         <v>75</v>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>Brian Hauser</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="E124" t="n">
         <v>14</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>350</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>5.81</v>
       </c>
-      <c r="G124" t="n">
+      <c r="H124" t="n">
         <v>10</v>
       </c>
-      <c r="H124" t="n">
+      <c r="I124" t="n">
         <v>1.25</v>
       </c>
-      <c r="I124" t="n">
+      <c r="J124" t="n">
         <v>103.0699690189329</v>
       </c>
-      <c r="J124" t="n">
+      <c r="K124" t="n">
         <v>0</v>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="L124" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L124" t="n">
+      <c r="M124" t="n">
         <v>-1.877677455929019</v>
       </c>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
         <v>-1.055671498016558</v>
       </c>
-      <c r="N124" t="n">
+      <c r="O124" t="n">
         <v>-1.442203622505173</v>
       </c>
-      <c r="O124" t="n">
+      <c r="P124" t="n">
         <v>-1.458517525483584</v>
       </c>
     </row>
@@ -6932,49 +7306,52 @@
         <v>122</v>
       </c>
       <c r="B125" t="n">
+        <v>124</v>
+      </c>
+      <c r="C125" t="n">
         <v>57</v>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>Matthew Webber</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>12</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>300</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>5.89</v>
       </c>
-      <c r="G125" t="n">
+      <c r="H125" t="n">
         <v>9</v>
       </c>
-      <c r="H125" t="n">
+      <c r="I125" t="n">
         <v>1.125</v>
       </c>
-      <c r="I125" t="n">
+      <c r="J125" t="n">
         <v>110.5327436332767</v>
       </c>
-      <c r="J125" t="n">
+      <c r="K125" t="n">
         <v>0</v>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="L125" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L125" t="n">
+      <c r="M125" t="n">
         <v>-2.284267459173666</v>
       </c>
-      <c r="M125" t="n">
+      <c r="N125" t="n">
         <v>-0.981094788102442</v>
       </c>
-      <c r="N125" t="n">
+      <c r="O125" t="n">
         <v>-1.756371478522595</v>
       </c>
-      <c r="O125" t="n">
+      <c r="P125" t="n">
         <v>-1.673911241932901</v>
       </c>
     </row>
@@ -6983,49 +7360,52 @@
         <v>126</v>
       </c>
       <c r="B126" t="n">
+        <v>125</v>
+      </c>
+      <c r="C126" t="n">
         <v>59</v>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>Emily Gardner</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="E126" t="n">
         <v>18</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>450</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>2.62</v>
       </c>
-      <c r="G126" t="n">
+      <c r="H126" t="n">
         <v>13</v>
       </c>
-      <c r="H126" t="n">
+      <c r="I126" t="n">
         <v>1.625</v>
       </c>
-      <c r="I126" t="n">
+      <c r="J126" t="n">
         <v>140.9447858028316</v>
       </c>
-      <c r="J126" t="n">
+      <c r="K126" t="n">
         <v>0</v>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="L126" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L126" t="n">
+      <c r="M126" t="n">
         <v>-1.064497449439725</v>
       </c>
-      <c r="M126" t="n">
+      <c r="N126" t="n">
         <v>-4.029417805841953</v>
       </c>
-      <c r="N126" t="n">
+      <c r="O126" t="n">
         <v>-0.4997000544529074</v>
       </c>
-      <c r="O126" t="n">
+      <c r="P126" t="n">
         <v>-1.864538436578195</v>
       </c>
     </row>
@@ -7034,49 +7414,52 @@
         <v>124</v>
       </c>
       <c r="B127" t="n">
+        <v>126</v>
+      </c>
+      <c r="C127" t="n">
         <v>32</v>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>Toni Doty</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>13</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>325</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>4.83</v>
       </c>
-      <c r="G127" t="n">
+      <c r="H127" t="n">
         <v>9</v>
       </c>
-      <c r="H127" t="n">
+      <c r="I127" t="n">
         <v>1.125</v>
       </c>
-      <c r="I127" t="n">
+      <c r="J127" t="n">
         <v>117.6160063704412</v>
       </c>
-      <c r="J127" t="n">
+      <c r="K127" t="n">
         <v>0</v>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="L127" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L127" t="n">
+      <c r="M127" t="n">
         <v>-2.080972457551343</v>
       </c>
-      <c r="M127" t="n">
+      <c r="N127" t="n">
         <v>-1.969236194464485</v>
       </c>
-      <c r="N127" t="n">
+      <c r="O127" t="n">
         <v>-1.756371478522595</v>
       </c>
-      <c r="O127" t="n">
+      <c r="P127" t="n">
         <v>-1.935526710179474</v>
       </c>
     </row>
@@ -7085,49 +7468,52 @@
         <v>125</v>
       </c>
       <c r="B128" t="n">
+        <v>127</v>
+      </c>
+      <c r="C128" t="n">
         <v>74</v>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>Avery Hauser</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="E128" t="n">
         <v>10</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>250</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>3.32</v>
       </c>
-      <c r="G128" t="n">
+      <c r="H128" t="n">
         <v>12</v>
       </c>
-      <c r="H128" t="n">
+      <c r="I128" t="n">
         <v>1.5</v>
       </c>
-      <c r="I128" t="n">
+      <c r="J128" t="n">
         <v>138.0702457831325</v>
       </c>
-      <c r="J128" t="n">
+      <c r="K128" t="n">
         <v>0</v>
       </c>
-      <c r="K128" t="inlineStr">
+      <c r="L128" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L128" t="n">
+      <c r="M128" t="n">
         <v>-2.690857462418313</v>
       </c>
-      <c r="M128" t="n">
+      <c r="N128" t="n">
         <v>-3.376871594093434</v>
       </c>
-      <c r="N128" t="n">
+      <c r="O128" t="n">
         <v>-0.8138679104703294</v>
       </c>
-      <c r="O128" t="n">
+      <c r="P128" t="n">
         <v>-2.293865655660692</v>
       </c>
     </row>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -496,22 +496,22 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Swim Distance (Yards) StdDev</t>
+          <t>Swim Distance (Yards) std_dev</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Bike Distance (Miles) StdDev</t>
+          <t>Bike Distance (Miles) std_dev</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Run Distance (Miles) StdDev</t>
+          <t>Run Distance (Miles) std_dev</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>averageStdDev</t>
+          <t>average_std_dev</t>
         </is>
       </c>
     </row>
